--- a/CH4/demoFitTF.xlsx
+++ b/CH4/demoFitTF.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10,17 +10,17 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="108" documentId="11_514DF23F4D1F498EAB4593E7FF012D16118A5BC3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{277D898F-CFE7-E346-ABC5-CDED10F8C787}"/>
   <bookViews>
-    <workbookView xWindow="10040" yWindow="500" windowWidth="26940" windowHeight="19960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10040" yWindow="500" windowWidth="26940" windowHeight="19960"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="75" uniqueCount="25">
   <si>
     <t>Name</t>
   </si>
@@ -100,12 +100,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.000E+00"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -119,7 +119,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -127,16 +127,18 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -155,7 +157,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -306,7 +308,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -330,9 +332,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -356,7 +358,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -391,7 +393,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="false">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -409,7 +411,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -434,7 +436,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -450,47 +452,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="true" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" customWidth="1"/>
-    <col min="2" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="8.1640625" style="3" customWidth="1"/>
-    <col min="5" max="6" width="12.33203125" customWidth="1"/>
-    <col min="7" max="7" width="6.5" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" customWidth="true"/>
+    <col min="2" max="2" width="8.85546875" customWidth="true"/>
+    <col min="4" max="4" width="8.140625" style="3" customWidth="true"/>
+    <col min="5" max="5" width="12.28515625" customWidth="true"/>
+    <col min="7" max="7" width="6.5703125" customWidth="true"/>
+    <col min="3" max="3" width="8.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.28515625" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="0" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="2" x14ac:dyDescent="0.2">
+      <c r="A2" s="0" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2">
@@ -503,15 +507,15 @@
         <v>-4.0233035387073901</v>
       </c>
       <c r="E2" s="2">
-        <v>0.1</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="F2" s="2">
         <v>20.000000000000004</v>
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="3" x14ac:dyDescent="0.2">
+      <c r="A3" s="0" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2">
@@ -524,38 +528,38 @@
         <v>0.13994890645952135</v>
       </c>
       <c r="E3" s="2">
-        <v>1.6388645646568992E-4</v>
+        <v>0.00016388645646568992</v>
       </c>
       <c r="F3" s="2">
         <v>163.88645646568992</v>
       </c>
       <c r="G3" s="1">
-        <v>4.1210923718017897E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+        <v>0.0041210923718017897</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="4" x14ac:dyDescent="0.2">
+      <c r="A4" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>1.2751196298852318E-3</v>
+        <v>0.0012751196298852318</v>
       </c>
       <c r="C4" s="2">
-        <v>1.2672000000000002E-3</v>
+        <v>0.0012672000000000002</v>
       </c>
       <c r="D4" s="3">
         <v>0.62497079271082234</v>
       </c>
       <c r="E4" s="2">
-        <v>7.6134820655698792E-5</v>
+        <v>7.6134820655698792e-05</v>
       </c>
       <c r="F4" s="2">
-        <v>7.6134820655698789E-3</v>
+        <v>0.0076134820655698789</v>
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="5" x14ac:dyDescent="0.2">
+      <c r="A5" s="0" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="2">
@@ -565,18 +569,18 @@
         <v>1</v>
       </c>
       <c r="D5" s="3">
-        <v>-3.5017277314475237E-3</v>
+        <v>-0.0035017277314475237</v>
       </c>
       <c r="E5" s="2">
-        <v>0.7</v>
+        <v>0.69999999999999996</v>
       </c>
       <c r="F5" s="2">
         <v>1</v>
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="6" x14ac:dyDescent="0.2">
+      <c r="A6" s="0" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="2">
@@ -589,7 +593,7 @@
         <v>-0.20584219992847633</v>
       </c>
       <c r="E6" s="2">
-        <v>1.3189103570313131E-2</v>
+        <v>0.013189103570313131</v>
       </c>
       <c r="F6" s="2">
         <v>131.89103570313131</v>
@@ -598,8 +602,8 @@
         <v>1.1101400918615034</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="7" x14ac:dyDescent="0.2">
+      <c r="A7" s="0" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="2">
@@ -621,8 +625,8 @@
         <v>0.11765321103082149</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="8" x14ac:dyDescent="0.2">
+      <c r="A8" s="0" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="2">
@@ -644,8 +648,8 @@
         <v>1.4700011140007336</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="9" x14ac:dyDescent="0.2">
+      <c r="A9" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="2">
@@ -658,40 +662,40 @@
         <v>-4.3357894608136638</v>
       </c>
       <c r="E9" s="2">
-        <v>6.077786546516719E-2</v>
+        <v>0.06077786546516719</v>
       </c>
       <c r="F9" s="2">
         <v>607.77865465167224</v>
       </c>
       <c r="G9" s="1">
-        <v>2.2352719049700112E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+        <v>0.022352719049700112</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="10" x14ac:dyDescent="0.2">
+      <c r="A10" s="0" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>8.239917704427177E-4</v>
+        <v>0.0008239917704427177</v>
       </c>
       <c r="C10" s="2">
-        <v>8.3125000000000007E-4</v>
+        <v>0.00083125000000000007</v>
       </c>
       <c r="D10" s="3">
         <v>-0.87317047305652529</v>
       </c>
       <c r="E10" s="2">
-        <v>1.0000000000000001E-9</v>
+        <v>1.0000000000000001e-09</v>
       </c>
       <c r="F10" s="2">
         <v>1000</v>
       </c>
       <c r="G10" s="1">
-        <v>1.6827673006378994E-4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+        <v>0.00016827673006378994</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="11" x14ac:dyDescent="0.2">
+      <c r="A11" s="0" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="2">
@@ -701,10 +705,10 @@
         <v>0.99738674241685066</v>
       </c>
       <c r="D11" s="3">
-        <v>-2.7922234101739503E-2</v>
+        <v>-0.027922234101739503</v>
       </c>
       <c r="E11" s="2">
-        <v>1E-4</v>
+        <v>0.0001</v>
       </c>
       <c r="F11" s="2">
         <v>100</v>
@@ -713,8 +717,8 @@
         <v>1.061245510641049</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="12" x14ac:dyDescent="0.2">
+      <c r="A12" s="0" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="2">
@@ -724,10 +728,10 @@
         <v>0.71850265735850194</v>
       </c>
       <c r="D12" s="3">
-        <v>5.1894593046229086E-2</v>
+        <v>0.051894593046229086</v>
       </c>
       <c r="E12" s="2">
-        <v>1E-4</v>
+        <v>0.0001</v>
       </c>
       <c r="F12" s="2">
         <v>100</v>
@@ -736,8 +740,8 @@
         <v>1.061245510641049</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="13" x14ac:dyDescent="0.2">
+      <c r="A13" s="0" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="2">
@@ -757,29 +761,29 @@
       </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="14" x14ac:dyDescent="0.2">
+      <c r="A14" s="0" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>9.3510449789936168E-2</v>
+        <v>0.093510449789936168</v>
       </c>
       <c r="C14" s="2">
-        <v>9.2928000000000024E-2</v>
+        <v>0.092928000000000024</v>
       </c>
       <c r="D14" s="3">
         <v>0.6267753421316965</v>
       </c>
       <c r="E14" s="2">
-        <v>1.3175461568528534E-2</v>
+        <v>0.013175461568528534</v>
       </c>
       <c r="F14" s="2">
         <v>13.175461568528535</v>
       </c>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="0" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="2">
@@ -789,60 +793,60 @@
         <v>1</v>
       </c>
       <c r="D15" s="3">
-        <v>-7.1382150554843982E-2</v>
+        <v>-0.071382150554843982</v>
       </c>
       <c r="E15" s="2">
-        <v>0.7</v>
+        <v>0.69999999999999996</v>
       </c>
       <c r="F15" s="2">
         <v>1</v>
       </c>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="0" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="2">
-        <v>4.9150832354060113E-2</v>
+        <v>0.049150832354060113</v>
       </c>
       <c r="C16" s="2">
-        <v>4.7348484848484841E-2</v>
+        <v>0.047348484848484841</v>
       </c>
       <c r="D16" s="3">
         <v>3.8065579317749747</v>
       </c>
       <c r="E16" s="2">
-        <v>1.3798756920797042E-4</v>
+        <v>0.00013798756920797042</v>
       </c>
       <c r="F16" s="2">
         <v>1.3798756920797042</v>
       </c>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="0" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="2">
-        <v>2.3718026496525074E-2</v>
+        <v>0.023718026496525074</v>
       </c>
       <c r="C17" s="2">
-        <v>2.3674242424242421E-2</v>
+        <v>0.023674242424242421</v>
       </c>
       <c r="D17" s="3">
         <v>0.18494392132192908</v>
       </c>
       <c r="E17" s="2">
-        <v>1.7168996793265361E-4</v>
+        <v>0.00017168996793265361</v>
       </c>
       <c r="F17" s="2">
         <v>1.7168996793265361</v>
       </c>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="18" x14ac:dyDescent="0.2">
+      <c r="A18" s="0" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="2">
@@ -862,15 +866,15 @@
       </c>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="19" x14ac:dyDescent="0.2">
+      <c r="A19" s="0" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="2">
-        <v>2.5193826986378185E-9</v>
+        <v>2.5193826986378185e-09</v>
       </c>
       <c r="C19" s="2">
-        <v>1E-8</v>
+        <v>1e-08</v>
       </c>
       <c r="D19" s="3">
         <v>-74.806173013621816</v>
@@ -879,32 +883,32 @@
         <v>0</v>
       </c>
       <c r="F19" s="2">
-        <v>1.4057919370756191E-6</v>
+        <v>1.4057919370756191e-06</v>
       </c>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="20" x14ac:dyDescent="0.2">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="E20" s="2"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="21" x14ac:dyDescent="0.2">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="E21" s="2"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="22" x14ac:dyDescent="0.2">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="E22" s="2"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="23" x14ac:dyDescent="0.2">
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="E23" s="4"/>
